--- a/documents/02_データベース設計書_makwm.xlsx
+++ b/documents/02_データベース設計書_makwm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="973" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74EFA3B-4CD7-4B5E-A68D-C4EA770357A5}"/>
+  <xr:revisionPtr revIDLastSave="994" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D821FE1B-0BC6-4ED1-8508-90FC14493440}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="188">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -143,7 +143,7 @@
     <t>ユーザー</t>
   </si>
   <si>
-    <t>user</t>
+    <t>users</t>
   </si>
   <si>
     <t>テーブル</t>
@@ -244,9 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>bcrypt　少し準備がいるけど強い　60文字</t>
   </si>
   <si>
@@ -525,7 +522,7 @@
     <t>comments</t>
   </si>
   <si>
-    <t>30文字</t>
+    <t>50文字</t>
   </si>
   <si>
     <t>アドバイス</t>
@@ -625,6 +622,9 @@
     <t>omt</t>
   </si>
   <si>
+    <t>omt_stress_factor</t>
+  </si>
+  <si>
     <t>月の傾向は、週の傾向と同じやり方で求める。</t>
   </si>
   <si>
@@ -673,9 +673,6 @@
     <t>３．生活的ストレスのコメント</t>
   </si>
   <si>
-    <t>questions</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>質問カテゴリ</t>
+  </si>
+  <si>
+    <t>questions_category</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2619,7 +2619,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3060,7 +3060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D63009-46DF-4315-8BD2-468AA9E25193}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3123,7 +3125,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3141,29 +3143,29 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table questions (</v>
+        <v>create table check_questions (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3171,25 +3173,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3201,25 +3203,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="9"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">questions1 varchar </v>
+        <v>questions1 varchar (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3227,23 +3231,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve"> varchar </v>
+        <v>questions_category varchar (50)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3554,7 +3562,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3576,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3633,7 +3641,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -3642,12 +3650,12 @@
     </row>
     <row r="6" spans="1:13">
       <c r="K6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="K7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3661,25 +3669,25 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
@@ -3694,26 +3702,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3725,28 +3733,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3758,13 +3766,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="18">
         <v>255</v>
@@ -3773,11 +3781,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4109,7 +4117,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="M30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4132,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4206,22 +4214,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
@@ -4236,23 +4244,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4267,22 +4275,22 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4294,13 +4302,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -4308,11 +4316,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4324,13 +4332,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4338,11 +4346,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4354,13 +4362,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4368,11 +4376,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4384,13 +4392,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4398,11 +4406,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4414,13 +4422,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4428,11 +4436,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -4444,13 +4452,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4458,11 +4466,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -4474,13 +4482,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -4488,11 +4496,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -4504,13 +4512,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -4518,11 +4526,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
@@ -4534,13 +4542,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -4548,11 +4556,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -4564,13 +4572,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -4578,11 +4586,11 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
@@ -4594,13 +4602,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -4608,11 +4616,11 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L22" t="str">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
@@ -4624,25 +4632,25 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L23" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
@@ -4654,15 +4662,17 @@
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E24" s="3">
+        <v>50</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4670,7 +4680,7 @@
       <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">stress_factor varchar </v>
+        <v>stress_factor varchar (50)</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -4765,22 +4775,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="J32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4795,7 +4805,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4881,22 +4891,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -4911,25 +4921,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4941,13 +4951,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -4955,13 +4965,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4973,13 +4983,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -4987,13 +4997,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5005,13 +5015,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -5019,13 +5029,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5037,13 +5047,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -5051,13 +5061,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5069,13 +5079,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -5083,13 +5093,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -5101,13 +5111,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -5115,13 +5125,13 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -5133,13 +5143,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -5147,13 +5157,13 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5165,13 +5175,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -5179,13 +5189,13 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -5392,7 +5402,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5406,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2578C-5B83-4DFB-A0EE-260573111A01}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5459,14 +5469,14 @@
         <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5481,22 +5491,22 @@
       </c>
       <c r="E5" s="3"/>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="J6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="J7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="J8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5510,22 +5520,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -5540,25 +5550,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -5570,23 +5580,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5598,27 +5610,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>comments varchar ,</v>
+        <v>comments varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27">
@@ -5626,25 +5640,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>advice varchar ,</v>
+        <v>advice varchar (50),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5652,25 +5668,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>pet_check_comments varchar ,</v>
+        <v>pet_check_comments varchar (50),</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5678,13 +5696,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -5692,15 +5710,15 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L15" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>trends varchar ,</v>
+        <v>trends varchar (50),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5708,13 +5726,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -5722,11 +5740,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5969,7 +5987,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5984,7 +6002,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6055,7 +6073,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6069,22 +6087,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -6099,25 +6117,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -6129,13 +6147,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -6143,13 +6161,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L11" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6482,7 +6500,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6497,7 +6515,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6568,7 +6586,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6582,22 +6600,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
@@ -6612,25 +6630,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6645,22 +6663,24 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="9"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>owt varchar ,</v>
+        <v>owt varchar (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6668,25 +6688,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>owt_comments varchar ,</v>
+        <v>owt_comments varchar (50),</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27">
@@ -6694,27 +6716,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">owt_stress_factor varchar </v>
+        <v>owt_stress_factor varchar (50)</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7007,22 +7031,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7037,7 +7061,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7119,22 +7143,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -7149,20 +7173,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7180,40 +7204,54 @@
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">omt varchar </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>omt varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>omt_stress_factor varchar (50)</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7524,7 +7562,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="10:10">
@@ -7544,7 +7582,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7640,22 +7678,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -7676,14 +7714,14 @@
         <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7706,13 +7744,15 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
@@ -7738,7 +7778,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">pet_comments varchar </v>
+        <v>pet_comments varchar (50)</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -8054,7 +8094,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="L30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/documents/02_データベース設計書_makwm.xlsx
+++ b/documents/02_データベース設計書_makwm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="994" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D821FE1B-0BC6-4ED1-8508-90FC14493440}"/>
+  <xr:revisionPtr revIDLastSave="1037" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0622C2DA-D436-428E-A5CA-2DC0939BBD86}"/>
   <bookViews>
     <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,13 @@
     <sheet name="users" sheetId="2" r:id="rId2"/>
     <sheet name="check_results" sheetId="4" r:id="rId3"/>
     <sheet name="useritems" sheetId="3" r:id="rId4"/>
-    <sheet name="check_comments" sheetId="6" r:id="rId5"/>
-    <sheet name="login_rewards" sheetId="5" r:id="rId6"/>
-    <sheet name="one_week_trends" sheetId="8" r:id="rId7"/>
-    <sheet name="one_month_trends" sheetId="9" r:id="rId8"/>
-    <sheet name="pet_comments" sheetId="10" r:id="rId9"/>
-    <sheet name="check_questions" sheetId="7" r:id="rId10"/>
+    <sheet name="login_rewards" sheetId="5" r:id="rId5"/>
+    <sheet name="login_bonus_history" sheetId="11" r:id="rId6"/>
+    <sheet name="check_comments" sheetId="6" r:id="rId7"/>
+    <sheet name="one_week_trends" sheetId="8" r:id="rId8"/>
+    <sheet name="one_month_trends" sheetId="9" r:id="rId9"/>
+    <sheet name="pet_comments" sheetId="10" r:id="rId10"/>
+    <sheet name="check_questions" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="197">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -224,6 +225,15 @@
     <t>チェック質問　おそらく不要　一応残しておく</t>
   </si>
   <si>
+    <t>ログインボーナス履歴</t>
+  </si>
+  <si>
+    <t>login_bonus_history</t>
+  </si>
+  <si>
+    <t>ユーザーのログインボーナス履歴</t>
+  </si>
+  <si>
     <t>テーブル論理名</t>
     <rPh sb="4" eb="6">
       <t>ロンリ</t>
@@ -492,75 +502,6 @@
     <t>petitems8</t>
   </si>
   <si>
-    <t>チェックコメント・アドバイス</t>
-  </si>
-  <si>
-    <t>傾向は、週の傾向の求め方を流用して求める</t>
-  </si>
-  <si>
-    <t>コメントを出す基準←Servlet、DAO等でスコアに応じて選ぶ予定だった</t>
-  </si>
-  <si>
-    <t>スコアは10単位で、コメントを分ける</t>
-  </si>
-  <si>
-    <t>傾向が3つ</t>
-  </si>
-  <si>
-    <t>コメント・アドバイスを30個</t>
-  </si>
-  <si>
-    <t>コメント・アドバイスid</t>
-  </si>
-  <si>
-    <t>comments_advice_id</t>
-  </si>
-  <si>
-    <t>コメント</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>50文字</t>
-  </si>
-  <si>
-    <t>アドバイス</t>
-  </si>
-  <si>
-    <t>advice</t>
-  </si>
-  <si>
-    <t>キャラクター用コメント</t>
-  </si>
-  <si>
-    <t>pet_check_comments</t>
-  </si>
-  <si>
-    <t>傾向</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>最小</t>
-  </si>
-  <si>
-    <t>min_score</t>
-  </si>
-  <si>
-    <t>0～90までの値を入れる</t>
-  </si>
-  <si>
-    <t>最大</t>
-  </si>
-  <si>
-    <t>max_score</t>
-  </si>
-  <si>
-    <t>10～100までの値を入れる</t>
-  </si>
-  <si>
     <t>check_resultsの作成日時を元に前回の記録を使ってログイン継続を判断する</t>
   </si>
   <si>
@@ -572,6 +513,93 @@
   <si>
     <t>毎日のログイン継続日数を記録する
 ログイン継続日数は、0～7で記録される。ログイン継続日数が途絶えるか、7日以上連続になったら、0になる。</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>ログイン履歴のid</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>ボーナスデータ</t>
+  </si>
+  <si>
+    <t>bonus_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>チェックコメント・アドバイス</t>
+  </si>
+  <si>
+    <t>傾向は、週の傾向の求め方を流用して求める</t>
+  </si>
+  <si>
+    <t>コメントを出す基準←Servlet、DAO等でスコアに応じて選ぶ予定だった</t>
+  </si>
+  <si>
+    <t>スコアは10単位で、コメントを分ける</t>
+  </si>
+  <si>
+    <t>傾向が3つ</t>
+  </si>
+  <si>
+    <t>コメント・アドバイスを30個</t>
+  </si>
+  <si>
+    <t>コメント・アドバイスid</t>
+  </si>
+  <si>
+    <t>comments_advice_id</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>50文字</t>
+  </si>
+  <si>
+    <t>アドバイス</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>キャラクター用コメント</t>
+  </si>
+  <si>
+    <t>pet_check_comments</t>
+  </si>
+  <si>
+    <t>傾向</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>最小</t>
+  </si>
+  <si>
+    <t>min_score</t>
+  </si>
+  <si>
+    <t>0～90までの値を入れる</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>max_score</t>
+  </si>
+  <si>
+    <t>10～100までの値を入れる</t>
   </si>
   <si>
     <t>check_resultsの作成日時を使い、範囲を指定する</t>
@@ -695,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +765,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -872,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +973,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2122,6 +2161,110 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F232D31A-141C-4BC0-8D6D-21EFD5E492FE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E42D7110-E0A8-6238-39E3-4E9762C6CBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="2981325"/>
+          <a:ext cx="11858625" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E0F8CA-CF42-4211-A9AF-04FDE7FC05D6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E42D7110-E0A8-6238-39E3-4E9762C6CBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="2981325"/>
+          <a:ext cx="11858625" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -2170,59 +2313,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F232D31A-141C-4BC0-8D6D-21EFD5E492FE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E42D7110-E0A8-6238-39E3-4E9762C6CBD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10382250" y="2981325"/>
-          <a:ext cx="11858625" cy="3486150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2274,7 +2365,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2619,7 +2710,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2677,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2854,10 +2945,18 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3">
@@ -3057,11 +3156,537 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA07474-9D2C-4347-8130-52FFB78D5827}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="J4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="J5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="J6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table pet_comments (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>pet_comments_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>pet_comments varchar (50)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="3"/>
+      <c r="L19" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D63009-46DF-4315-8BD2-468AA9E25193}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3110,7 +3735,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
@@ -3122,7 +3747,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>41</v>
@@ -3143,22 +3768,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
@@ -3173,25 +3798,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3203,13 +3828,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3217,7 +3842,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="9"/>
@@ -3231,13 +3856,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -3245,7 +3870,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3562,7 +4187,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +4201,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3626,7 +4251,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -3638,7 +4263,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -3650,12 +4275,12 @@
     </row>
     <row r="6" spans="1:13">
       <c r="K6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="K7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3669,25 +4294,25 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>14</v>
@@ -3702,26 +4327,26 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3733,28 +4358,28 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3766,13 +4391,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E12" s="18">
         <v>255</v>
@@ -3781,11 +4406,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4117,7 +4742,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="M30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +4806,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -4193,7 +4818,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -4214,22 +4839,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
@@ -4244,23 +4869,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -4275,22 +4900,22 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4302,13 +4927,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -4316,11 +4941,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4332,13 +4957,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -4346,11 +4971,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4362,13 +4987,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -4376,11 +5001,11 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4392,13 +5017,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -4406,11 +5031,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4422,13 +5047,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4436,11 +5061,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -4452,13 +5077,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -4466,11 +5091,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -4482,13 +5107,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -4496,11 +5121,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L18" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -4512,13 +5137,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -4526,11 +5151,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L19" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
@@ -4542,13 +5167,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -4556,11 +5181,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -4572,13 +5197,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -4586,11 +5211,11 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
@@ -4602,13 +5227,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -4616,11 +5241,11 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L22" t="str">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
@@ -4632,25 +5257,25 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="L23" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
@@ -4662,13 +5287,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3">
         <v>50</v>
@@ -4775,22 +5400,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="J32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4805,7 +5430,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4854,7 +5479,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -4868,7 +5493,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -4891,22 +5516,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -4921,25 +5546,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L10" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4951,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
@@ -4965,13 +5590,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L11" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4983,13 +5608,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3">
         <v>2</v>
@@ -4997,13 +5622,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L12" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5015,13 +5640,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -5029,13 +5654,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5047,13 +5672,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -5061,13 +5686,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5079,13 +5704,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -5093,13 +5718,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L15" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -5111,13 +5736,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -5125,13 +5750,13 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L16" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -5143,13 +5768,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -5157,13 +5782,13 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" t="e">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5175,13 +5800,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -5189,13 +5814,13 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L18" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -5402,7 +6027,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5413,6 +6038,1063 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BCD271-B897-4653-AD8D-0DDF351BF574}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table login_rewards (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="67.5">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>userid int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>login_date int (1)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E7DE65-4488-4BC0-B15D-C0214A958A4F}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table login_bonus_history (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="M12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id int (1),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="M13" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">bonus_date date </v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="M14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="M16" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="M17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="M18" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="3"/>
+      <c r="M19" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="M20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="M21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="M22" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="M23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="M24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="M25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="M26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="M27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="M28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="M29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2578C-5B83-4DFB-A0EE-260573111A01}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -5466,22 +7148,22 @@
     </row>
     <row r="4" spans="1:12" ht="27">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -5491,22 +7173,22 @@
       </c>
       <c r="E5" s="3"/>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="J6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="J7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="J8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5520,22 +7202,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -5550,25 +7232,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L10" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
@@ -5580,13 +7262,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -5594,11 +7276,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L11" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -5610,13 +7292,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -5624,11 +7306,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L12" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5640,13 +7322,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -5654,7 +7336,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5668,13 +7350,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3">
         <v>50</v>
@@ -5682,7 +7364,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5696,13 +7378,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -5710,11 +7392,11 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L15" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5726,13 +7408,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -5740,11 +7422,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L16" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5987,7 +7669,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5997,520 +7679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BCD271-B897-4653-AD8D-0DDF351BF574}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="J5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table login_rewards (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="67.5">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>userid int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>login_date int (1)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D6C007-5955-4250-8A16-C045E531268B}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -6564,7 +7733,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>34</v>
@@ -6576,7 +7745,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -6586,7 +7755,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6600,22 +7769,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>14</v>
@@ -6630,25 +7799,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="14" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -6663,10 +7832,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -6674,7 +7843,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="9"/>
@@ -6688,13 +7857,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -6702,7 +7871,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6716,13 +7885,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -6730,11 +7899,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7031,22 +8200,22 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7056,7 +8225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EBD2AE-7578-4E86-B5B2-8187057BD0A5}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -7110,7 +8279,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>37</v>
@@ -7122,7 +8291,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -7143,22 +8312,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -7173,20 +8342,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7204,10 +8373,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -7215,7 +8384,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -7229,13 +8398,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -7243,11 +8412,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -7562,12 +8731,12 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7575,530 +8744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA07474-9D2C-4347-8130-52FFB78D5827}">
-  <dimension ref="A1:Q30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="J4" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="J5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="J6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table pet_comments (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>pet_comments_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>pet_comments varchar (50)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="3"/>
-      <c r="L19" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="L30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>